--- a/Recycling/Met_rec_tech/metrec_tech_Min_full_Max.xlsx
+++ b/Recycling/Met_rec_tech/metrec_tech_Min_full_Max.xlsx
@@ -137,7 +137,7 @@
     <t>Dysprosium</t>
   </si>
   <si>
-    <t>Copper ores and concentrates</t>
+    <t>Copper</t>
   </si>
   <si>
     <t>Raw silicon</t>
@@ -661,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>4.471133903500981E-08</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -677,10 +677,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>3.003025368202342E-09</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -690,13 +690,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0.0005836150636045235</v>
+      </c>
+      <c r="E7">
         <v>39.71978201491726</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>5.66531645719682E-06</v>
-      </c>
-      <c r="F7">
-        <v>0.0005836150636045235</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -706,10 +706,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>105.8489486330707</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -776,10 +776,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>729.4546112906335</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -792,10 +792,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>48.99362778964622</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -805,13 +805,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>403521.0421350192</v>
+      </c>
+      <c r="E7">
         <v>2522774.717198513</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>92428.25876646276</v>
-      </c>
-      <c r="F7">
-        <v>403521.0421350192</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -821,10 +821,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6722923.387476484</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -891,10 +891,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>665.6587650135856</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -907,10 +907,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>44.70879649425825</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -920,13 +920,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>378417.6178200024</v>
+      </c>
+      <c r="E7">
         <v>2520511.524934847</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>84344.76885954775</v>
-      </c>
-      <c r="F7">
-        <v>378417.6178200024</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -936,10 +936,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6716892.223418894</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1006,10 +1006,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>5.460880142718356E-07</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>3.667785835815563E-08</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1035,13 +1035,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0.005978261156333025</v>
+      </c>
+      <c r="E7">
         <v>76.9581095001047</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>6.91941123013491E-05</v>
-      </c>
-      <c r="F7">
-        <v>0.005978261156333025</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1051,10 +1051,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>205.0850877357663</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1121,10 +1121,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>5.613344725735611E-06</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1137,10 +1137,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>3.770188273415274E-07</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1150,13 +1150,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0.05264513266085973</v>
+      </c>
+      <c r="E7">
         <v>156.2818227504645</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.0007112597148953172</v>
-      </c>
-      <c r="F7">
-        <v>0.05264513266085973</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1166,10 +1166,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>416.4742551302001</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1236,10 +1236,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>4.055380975791028E-05</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1252,10 +1252,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>2.723786003923904E-06</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1265,13 +1265,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0.3326119346754347</v>
+      </c>
+      <c r="E7">
         <v>268.8748042478167</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.005138521251703498</v>
-      </c>
-      <c r="F7">
-        <v>0.3326119346754347</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1281,10 +1281,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>716.5224454873781</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1351,10 +1351,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.0002723507588714571</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1367,10 +1367,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>1.829236734108393E-05</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1380,13 +1380,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>1.989887295289305</v>
+      </c>
+      <c r="E7">
         <v>504.8575611715793</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.03450921555170485</v>
-      </c>
-      <c r="F7">
-        <v>1.989887295289305</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1396,10 +1396,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1345.391121215074</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1466,10 +1466,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.001512728821623399</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1482,10 +1482,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.0001016020348437526</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1495,13 +1495,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>10.00474968701838</v>
+      </c>
+      <c r="E7">
         <v>896.5834243893422</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.1916759299404667</v>
-      </c>
-      <c r="F7">
-        <v>10.00474968701838</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1511,10 +1511,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2389.298430636109</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1581,10 +1581,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.006136055837529398</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1597,10 +1597,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.0004121265821714348</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1610,13 +1610,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>37.23795142854551</v>
+      </c>
+      <c r="E7">
         <v>1293.352402475922</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.7774917698486747</v>
-      </c>
-      <c r="F7">
-        <v>37.23795142854551</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1626,10 +1626,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3446.645098976577</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1696,10 +1696,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.02649118756789803</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1712,10 +1712,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.001779273670106642</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1725,13 +1725,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>149.1905810944834</v>
+      </c>
+      <c r="E7">
         <v>2155.310308975162</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>3.356664419770214</v>
-      </c>
-      <c r="F7">
-        <v>149.1905810944834</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1741,10 +1741,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>5743.670247167013</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1811,10 +1811,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.1057618187354195</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1827,10 +1827,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.00710346483698445</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1840,13 +1840,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>557.5089466574992</v>
+      </c>
+      <c r="E7">
         <v>3541.267730961611</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>13.40094448425431</v>
-      </c>
-      <c r="F7">
-        <v>557.5089466574992</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1856,10 +1856,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>9437.097766793657</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1926,10 +1926,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.3949669355732691</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1942,10 +1942,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.0265278507136396</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1955,13 +1955,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>1957.525273600206</v>
+      </c>
+      <c r="E7">
         <v>5741.960121408265</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>50.04575412961229</v>
-      </c>
-      <c r="F7">
-        <v>1957.525273600206</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1971,10 +1971,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>15301.70638186847</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2156,10 +2156,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1.225885235020655</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2172,10 +2172,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.08233626052642123</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2185,13 +2185,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>5689.24984335873</v>
+      </c>
+      <c r="E7">
         <v>8145.367460974099</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>155.3303467641401</v>
-      </c>
-      <c r="F7">
-        <v>5689.24984335873</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2201,10 +2201,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>21706.52854163025</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2271,10 +2271,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>3.717896282191014</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2287,10 +2287,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.2497115293957632</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2300,13 +2300,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>15785.62152002753</v>
+      </c>
+      <c r="E7">
         <v>12026.80489810511</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>471.0898722392289</v>
-      </c>
-      <c r="F7">
-        <v>15785.62152002753</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2316,10 +2316,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>32050.14200232497</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2386,10 +2386,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>10.00302110725976</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2402,10 +2402,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.671850291046823</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2415,13 +2415,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>36520.33105625291</v>
+      </c>
+      <c r="E7">
         <v>17470.36364225976</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1267.469982419269</v>
-      </c>
-      <c r="F7">
-        <v>36520.33105625291</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2431,10 +2431,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>46556.64079616858</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2501,10 +2501,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>18.47101845458313</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2517,10 +2517,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>1.240601113561228</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2530,13 +2530,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>52226.62670371051</v>
+      </c>
+      <c r="E7">
         <v>21200.65104831948</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>2340.439071842551</v>
-      </c>
-      <c r="F7">
-        <v>52226.62670371051</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2546,10 +2546,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>56497.45567481811</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2616,10 +2616,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>26.66873654337414</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2632,10 +2632,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>1.791198700511918</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2645,13 +2645,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>58685.88945486453</v>
+      </c>
+      <c r="E7">
         <v>28884.00606030518</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>3379.161422866802</v>
-      </c>
-      <c r="F7">
-        <v>58685.88945486453</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2661,10 +2661,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>76972.77071274772</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2731,10 +2731,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>21.46345498860428</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2747,10 +2747,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>1.441587329101865</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2760,13 +2760,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>55343.10674323906</v>
+      </c>
+      <c r="E7">
         <v>37358.78887582566</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>2719.60686930065</v>
-      </c>
-      <c r="F7">
-        <v>55343.10674323906</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2776,10 +2776,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>99557.15575744816</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2846,10 +2846,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>11.50943787647307</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2862,10 +2862,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.7730283785447344</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2875,13 +2875,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>56609.98782628091</v>
+      </c>
+      <c r="E7">
         <v>47162.87496746586</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1458.346120289774</v>
-      </c>
-      <c r="F7">
-        <v>56609.98782628091</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2891,10 +2891,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>125683.99111416</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2961,10 +2961,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>12.06726495889813</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2977,10 +2977,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.8104946883387903</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2990,13 +2990,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>60062.64473299781</v>
+      </c>
+      <c r="E7">
         <v>58180.5266770717</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1529.027674869435</v>
-      </c>
-      <c r="F7">
-        <v>60062.64473299781</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3006,10 +3006,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>155044.8483673329</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3076,10 +3076,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>19.98263114380704</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3092,10 +3092,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>1.342128183664888</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3105,13 +3105,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>63779.37715895359</v>
+      </c>
+      <c r="E7">
         <v>70212.96668763712</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>2531.973578077361</v>
-      </c>
-      <c r="F7">
-        <v>63779.37715895359</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3121,10 +3121,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>187110.0073385106</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3191,10 +3191,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>28.2744141719142</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3207,10 +3207,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>1.899043617611921</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3220,13 +3220,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>66243.83178710534</v>
+      </c>
+      <c r="E7">
         <v>83002.1872131407</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>3582.614776987954</v>
-      </c>
-      <c r="F7">
-        <v>66243.83178710534</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3236,10 +3236,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>221191.9050174212</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3335,10 +3335,10 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>0.0007051616507266565</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3351,10 +3351,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>0.001879179984365096</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3421,10 +3421,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>40.08030897725735</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3437,10 +3437,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>2.691983448087878</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3450,13 +3450,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>69883.05397514704</v>
+      </c>
+      <c r="E7">
         <v>96300.96674501314</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>5078.524574730165</v>
-      </c>
-      <c r="F7">
-        <v>69883.05397514704</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3466,10 +3466,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>256631.7226635258</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3536,10 +3536,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>53.1685605792875</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3552,10 +3552,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>3.571052436729339</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3565,13 +3565,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>74854.50822737912</v>
+      </c>
+      <c r="E7">
         <v>109971.0221493753</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>6736.920158428833</v>
-      </c>
-      <c r="F7">
-        <v>74854.50822737912</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3581,10 +3581,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>293060.950592424</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3651,10 +3651,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>60.88054289365594</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3667,10 +3667,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>4.08902570769405</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3680,13 +3680,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>73812.88209689336</v>
+      </c>
+      <c r="E7">
         <v>124103.5699501479</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>7714.095552102273</v>
-      </c>
-      <c r="F7">
-        <v>73812.88209689336</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3696,10 +3696,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>330722.6710333009</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3766,10 +3766,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>77.58022329478278</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3782,10 +3782,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>5.210655365132566</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3795,13 +3795,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>73778.38915289174</v>
+      </c>
+      <c r="E7">
         <v>139160.661480183</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>9830.090649729533</v>
-      </c>
-      <c r="F7">
-        <v>73778.38915289174</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3811,10 +3811,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>370848.2011111742</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3881,10 +3881,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>127.8272956797149</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3897,10 +3897,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>8.585486812960561</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3910,13 +3910,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>75034.11247958099</v>
+      </c>
+      <c r="E7">
         <v>156124.5368076041</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>16196.83278387625</v>
-      </c>
-      <c r="F7">
-        <v>75034.11247958099</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3926,10 +3926,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>416055.1050029341</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3996,10 +3996,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>200.0137657827614</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4012,10 +4012,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>13.43387215858144</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4025,13 +4025,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>75657.02836655699</v>
+      </c>
+      <c r="E7">
         <v>176630.311828316</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>25343.48788050649</v>
-      </c>
-      <c r="F7">
-        <v>75657.02836655699</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4041,10 +4041,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>470700.7907731498</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4111,10 +4111,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>281.301010065522</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4127,10 +4127,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>18.89350861682416</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4140,13 +4140,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>79528.52638703873</v>
+      </c>
+      <c r="E7">
         <v>203049.671568193</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>35643.29040788568</v>
-      </c>
-      <c r="F7">
-        <v>79528.52638703873</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4156,10 +4156,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>541105.5440261915</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4226,10 +4226,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>343.1027823864105</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4242,10 +4242,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>23.04440845755968</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4255,13 +4255,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>81797.01738030257</v>
+      </c>
+      <c r="E7">
         <v>238487.8003850305</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>43474.11375986146</v>
-      </c>
-      <c r="F7">
-        <v>81797.01738030257</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4271,10 +4271,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>635544.3472244773</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4341,10 +4341,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>310.1328165254402</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4357,10 +4357,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>20.82998934137682</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4370,13 +4370,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>79864.22225112571</v>
+      </c>
+      <c r="E7">
         <v>286660.1515045998</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>39296.53164720954</v>
-      </c>
-      <c r="F7">
-        <v>79864.22225112571</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4386,10 +4386,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>763918.4837510712</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4456,10 +4456,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>286.2451533039782</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4472,10 +4472,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>19.22558070165894</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4485,13 +4485,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>74910.24082112397</v>
+      </c>
+      <c r="E7">
         <v>351618.4104487661</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>36269.75646012428</v>
-      </c>
-      <c r="F7">
-        <v>74910.24082112397</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4501,10 +4501,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>937025.2599084148</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4600,10 +4600,10 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>0.02432854203862604</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4616,10 +4616,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>0.06483294887159499</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4686,10 +4686,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>275.588135838765</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4702,10 +4702,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>18.50980491663154</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4715,13 +4715,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>73824.31389398544</v>
+      </c>
+      <c r="E7">
         <v>437318.6588505559</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>34919.41943749494</v>
-      </c>
-      <c r="F7">
-        <v>73824.31389398544</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4731,10 +4731,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1165407.207913961</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4801,10 +4801,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>248.7289674880812</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4817,10 +4817,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>16.70581591369062</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4830,13 +4830,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>87011.21176841101</v>
+      </c>
+      <c r="E7">
         <v>547099.3764830502</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>31516.12864442341</v>
-      </c>
-      <c r="F7">
-        <v>87011.21176841101</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4846,10 +4846,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1457961.017429315</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4916,10 +4916,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>219.5109751673111</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4932,10 +4932,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>14.74339711700663</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4945,13 +4945,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>116840.4933958715</v>
+      </c>
+      <c r="E7">
         <v>683137.6424960388</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>27813.95428969213</v>
-      </c>
-      <c r="F7">
-        <v>116840.4933958715</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4961,10 +4961,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1820488.370321961</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5031,10 +5031,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>210.3065286562525</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5047,10 +5047,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>14.12518287942079</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5060,13 +5060,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>172699.1839460254</v>
+      </c>
+      <c r="E7">
         <v>845944.0730281973</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>26647.67067072789</v>
-      </c>
-      <c r="F7">
-        <v>172699.1839460254</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5076,10 +5076,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2254350.003703031</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5146,10 +5146,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>297.4594647793153</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5162,10 +5162,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>19.97878699281901</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5175,13 +5175,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>255226.362121322</v>
+      </c>
+      <c r="E7">
         <v>1033947.655721809</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>37690.70749242532</v>
-      </c>
-      <c r="F7">
-        <v>255226.362121322</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5191,10 +5191,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2755359.338545194</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5261,10 +5261,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>440.0950777618372</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5277,10 +5277,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>29.55887055641364</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5290,13 +5290,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>350648.5990247951</v>
+      </c>
+      <c r="E7">
         <v>1243211.844443501</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>55763.88318012948</v>
-      </c>
-      <c r="F7">
-        <v>350648.5990247951</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5306,10 +5306,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3313025.902637229</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5376,10 +5376,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>596.0710434323049</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5392,10 +5392,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>40.03495541201384</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5405,13 +5405,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>459170.9536740265</v>
+      </c>
+      <c r="E7">
         <v>1467330.277790688</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>75527.39785698024</v>
-      </c>
-      <c r="F7">
-        <v>459170.9536740265</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5421,10 +5421,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3910277.431615443</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5491,10 +5491,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>845.1902831757022</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5507,10 +5507,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>56.76698385944901</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5520,13 +5520,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>635081.1262573109</v>
+      </c>
+      <c r="E7">
         <v>1697553.589633413</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>107092.9773986156</v>
-      </c>
-      <c r="F7">
-        <v>635081.1262573109</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5536,10 +5536,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>4523797.805423738</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5606,10 +5606,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1127.313944749775</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5622,10 +5622,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>75.71574564924197</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5635,13 +5635,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>831466.7792975565</v>
+      </c>
+      <c r="E7">
         <v>1923200.015732033</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>142840.5049246578</v>
-      </c>
-      <c r="F7">
-        <v>831466.7792975565</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5651,10 +5651,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>5125121.270803753</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5721,10 +5721,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1232.901926512756</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5737,10 +5737,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>82.80753477153232</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5750,13 +5750,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>902360.9401243872</v>
+      </c>
+      <c r="E7">
         <v>2132385.33325597</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>156219.4227489624</v>
-      </c>
-      <c r="F7">
-        <v>902360.9401243872</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5766,10 +5766,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>5682577.651633538</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5865,10 +5865,10 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>0.1888763339644389</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5881,10 +5881,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>0.5033351231458476</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5951,10 +5951,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1239.871850116456</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5967,10 +5967,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>83.27566786367603</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5980,13 +5980,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>902963.0939123607</v>
+      </c>
+      <c r="E7">
         <v>2313057.971593361</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>157102.5728345934</v>
-      </c>
-      <c r="F7">
-        <v>902963.0939123607</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5996,10 +5996,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6164050.807946272</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6066,10 +6066,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1232.837154828064</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6082,10 +6082,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>82.80318439830556</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6095,13 +6095,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>892144.3065688219</v>
+      </c>
+      <c r="E7">
         <v>2454248.423890963</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>156211.2156118207</v>
-      </c>
-      <c r="F7">
-        <v>892144.3065688219</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6111,10 +6111,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6540308.183354729</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6181,10 +6181,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1209.136413703819</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6197,10 +6197,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>81.21133033225816</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6210,13 +6210,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>866650.7973225089</v>
+      </c>
+      <c r="E7">
         <v>2547362.191532778</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>153208.1250840732</v>
-      </c>
-      <c r="F7">
-        <v>866650.7973225089</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6226,10 +6226,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6788446.363077083</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6296,10 +6296,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1184.104406449795</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6312,10 +6312,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>79.5300621255064</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6325,13 +6325,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>833755.0437481327</v>
+      </c>
+      <c r="E7">
         <v>2587295.3523699</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>150036.3515314661</v>
-      </c>
-      <c r="F7">
-        <v>833755.0437481327</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6341,10 +6341,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6894863.943330096</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6411,10 +6411,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1188.124954101201</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6427,10 +6427,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>79.80010115479573</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6440,13 +6440,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>810430.4726265536</v>
+      </c>
+      <c r="E7">
         <v>2573158.781736582</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>150545.7899707537</v>
-      </c>
-      <c r="F7">
-        <v>810430.4726265536</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6456,10 +6456,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6857191.502472996</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6526,10 +6526,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1186.253928573731</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6542,10 +6542,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>79.67443421560731</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6555,13 +6555,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>771720.5436261895</v>
+      </c>
+      <c r="E7">
         <v>2508468.99802643</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>150308.7147244877</v>
-      </c>
-      <c r="F7">
-        <v>771720.5436261895</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6571,10 +6571,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6684800.183949426</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6641,10 +6641,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1102.207589725267</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6657,10 +6657,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>74.02948389397099</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6670,13 +6670,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>672422.176030694</v>
+      </c>
+      <c r="E7">
         <v>2400781.896715394</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>139659.3108613533</v>
-      </c>
-      <c r="F7">
-        <v>672422.176030694</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6686,10 +6686,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6397825.636837481</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6756,10 +6756,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>865.2379128974031</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6772,10 +6772,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>58.11347765556312</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6785,13 +6785,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>476438.8721934606</v>
+      </c>
+      <c r="E7">
         <v>2260868.835201446</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>109633.1868631814</v>
-      </c>
-      <c r="F7">
-        <v>476438.8721934606</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6801,10 +6801,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6024972.370529937</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6871,10 +6871,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>562.3936387431723</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6887,10 +6887,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>37.77302135234517</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6900,13 +6900,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>255578.0652132929</v>
+      </c>
+      <c r="E7">
         <v>2101616.231241372</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>71260.17707722177</v>
-      </c>
-      <c r="F7">
-        <v>255578.0652132929</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6916,10 +6916,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>5600581.302877001</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6986,10 +6986,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>431.8278904495178</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7002,10 +7002,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>29.00360708727137</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7015,13 +7015,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>174615.7505172811</v>
+      </c>
+      <c r="E7">
         <v>1936836.978582136</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>54716.35847283906</v>
-      </c>
-      <c r="F7">
-        <v>174615.7505172811</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7031,10 +7031,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>5161462.310633468</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7101,10 +7101,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1.622905251053116E-14</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7117,10 +7117,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>1.090020058510249E-15</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7130,13 +7130,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>4.411626853435261E-10</v>
+      </c>
+      <c r="E7">
         <v>0.7758442844475614</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>2.056362440870552E-12</v>
-      </c>
-      <c r="F7">
-        <v>4.411626853435261E-10</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7146,10 +7146,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2.067541603851436</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7216,10 +7216,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>399.4806702382955</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7232,10 +7232,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>26.83101451944275</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7245,13 +7245,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>169516.0560706531</v>
+      </c>
+      <c r="E7">
         <v>1780117.219269217</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>50617.68366321832</v>
-      </c>
-      <c r="F7">
-        <v>169516.0560706531</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7261,10 +7261,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>4743821.001648685</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7331,10 +7331,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>363.2131604068606</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7347,10 +7347,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>24.395116726714</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7360,13 +7360,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>169285.6482024484</v>
+      </c>
+      <c r="E7">
         <v>1643746.212481233</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>46022.27398092964</v>
-      </c>
-      <c r="F7">
-        <v>169285.6482024484</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7376,10 +7376,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>4380406.930364998</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7446,10 +7446,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>313.8118799609358</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7462,10 +7462,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>21.07709267280171</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7475,13 +7475,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>172209.2545161443</v>
+      </c>
+      <c r="E7">
         <v>1537743.942783762</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>39762.70105922075</v>
-      </c>
-      <c r="F7">
-        <v>172209.2545161443</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7491,10 +7491,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>4097922.278360047</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7561,10 +7561,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>282.0631927234779</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7577,10 +7577,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>18.94470041529062</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7590,13 +7590,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>192565.3854952153</v>
+      </c>
+      <c r="E7">
         <v>1469033.893193128</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>35739.86559549361</v>
-      </c>
-      <c r="F7">
-        <v>192565.3854952153</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7606,10 +7606,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3914817.383500268</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7676,10 +7676,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>324.1540727824719</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7692,10 +7692,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>21.77172334314675</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7705,13 +7705,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>254869.855396674</v>
+      </c>
+      <c r="E7">
         <v>1440877.102474435</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>41073.14705479857</v>
-      </c>
-      <c r="F7">
-        <v>254869.855396674</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7721,10 +7721,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3839782.563487011</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7791,10 +7791,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>439.2625914933273</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7807,10 +7807,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>29.50295683436972</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7820,13 +7820,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>348971.5714734835</v>
+      </c>
+      <c r="E7">
         <v>1452718.213763626</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>55658.3999121449</v>
-      </c>
-      <c r="F7">
-        <v>348971.5714734835</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7836,10 +7836,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3871337.851986262</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7906,10 +7906,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>601.1674027513301</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7922,10 +7922,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>40.37725105000677</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7935,13 +7935,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>463574.8883849698</v>
+      </c>
+      <c r="E7">
         <v>1500538.994804984</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>76173.151013674</v>
-      </c>
-      <c r="F7">
-        <v>463574.8883849698</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7951,10 +7951,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3998775.092053164</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8021,10 +8021,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>794.8653208711996</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8037,10 +8037,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>53.38692095558669</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8050,13 +8050,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>598475.3109178827</v>
+      </c>
+      <c r="E7">
         <v>1577674.761978319</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>100716.365932601</v>
-      </c>
-      <c r="F7">
-        <v>598475.3109178827</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8066,10 +8066,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>4204333.618387384</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8136,10 +8136,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>998.1679173046982</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8152,10 +8152,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>67.04168656287814</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8165,13 +8165,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>739930.2141277397</v>
+      </c>
+      <c r="E7">
         <v>1675898.441161701</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>126476.5773291706</v>
-      </c>
-      <c r="F7">
-        <v>739930.2141277397</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8181,10 +8181,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>4466089.162980463</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8251,10 +8251,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1154.700042923852</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8267,10 +8267,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>77.55512575567172</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8280,13 +8280,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>847058.9774009035</v>
+      </c>
+      <c r="E7">
         <v>1786504.808874808</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>146310.5623202219</v>
-      </c>
-      <c r="F7">
-        <v>847058.9774009035</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8296,10 +8296,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>4760843.241191626</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8366,10 +8366,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1.734383987332302E-12</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8382,10 +8382,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>1.164894459565292E-13</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8395,13 +8395,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>3.998213993363231E-08</v>
+      </c>
+      <c r="E7">
         <v>2.478032639939709</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>2.197615718652156E-10</v>
-      </c>
-      <c r="F7">
-        <v>3.998213993363231E-08</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8411,10 +8411,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6.603690561986014</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8481,10 +8481,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1224.067782162499</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8497,10 +8497,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>82.21419178152679</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8510,13 +8510,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>891204.6317148451</v>
+      </c>
+      <c r="E7">
         <v>1901175.409396202</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>155100.0596421322</v>
-      </c>
-      <c r="F7">
-        <v>891204.6317148451</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8526,10 +8526,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>5066428.062874528</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8596,10 +8596,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1233.00151061242</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8612,10 +8612,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>82.81422331148696</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8625,13 +8625,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>890763.6707403352</v>
+      </c>
+      <c r="E7">
         <v>2012537.22328251</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>156232.0409225818</v>
-      </c>
-      <c r="F7">
-        <v>890763.6707403352</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8641,10 +8641,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>5363195.323916153</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8711,10 +8711,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1220.263804678608</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8727,10 +8727,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>81.9586986307793</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8740,13 +8740,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>871698.9142904875</v>
+      </c>
+      <c r="E7">
         <v>2114458.152932367</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>154618.0625311663</v>
-      </c>
-      <c r="F7">
-        <v>871698.9142904875</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8756,10 +8756,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>5634803.643495825</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8826,10 +8826,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1201.037269087538</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8842,10 +8842,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>80.66735340675416</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8855,13 +8855,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>842678.5310213647</v>
+      </c>
+      <c r="E7">
         <v>2202181.317652096</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>152181.8928513972</v>
-      </c>
-      <c r="F7">
-        <v>842678.5310213647</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8871,10 +8871,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>5868576.445996648</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8941,10 +8941,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1179.719991118062</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8957,10 +8957,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>79.2355840188315</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8970,13 +8970,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>804915.0216894414</v>
+      </c>
+      <c r="E7">
         <v>2272379.962788804</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>149480.8078848175</v>
-      </c>
-      <c r="F7">
-        <v>804915.0216894414</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8986,10 +8986,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6055648.287941703</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9056,10 +9056,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1146.57937791889</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9072,10 +9072,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>77.00970341890213</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9085,13 +9085,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>751825.9705332726</v>
+      </c>
+      <c r="E7">
         <v>2323161.332913205</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>145281.6032666814</v>
-      </c>
-      <c r="F7">
-        <v>751825.9705332726</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9101,10 +9101,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6190975.179609837</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9171,10 +9171,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1073.545931628737</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9187,10 +9187,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>72.10443113965231</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9200,13 +9200,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>668083.5531940659</v>
+      </c>
+      <c r="E7">
         <v>2354013.103068914</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>136027.6289030546</v>
-      </c>
-      <c r="F7">
-        <v>668083.5531940659</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9216,10 +9216,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6273191.830074451</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9286,10 +9286,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>943.9913004835776</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9302,10 +9302,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>63.40292829286053</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9315,13 +9315,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>549979.5227333835</v>
+      </c>
+      <c r="E7">
         <v>2365685.778872199</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>119611.9276564866</v>
-      </c>
-      <c r="F7">
-        <v>549979.5227333835</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9331,10 +9331,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6304298.25611295</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9401,10 +9401,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>789.461223417208</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9417,10 +9417,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>53.02395616641169</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9430,13 +9430,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>427261.9814105614</v>
+      </c>
+      <c r="E7">
         <v>2360023.006370209</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>100031.6196712909</v>
-      </c>
-      <c r="F7">
-        <v>427261.9814105614</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9446,10 +9446,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6289207.576223044</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9516,10 +9516,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>665.9543346732568</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9532,10 +9532,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>44.72864835298627</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9545,13 +9545,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>342128.9299273757</v>
+      </c>
+      <c r="E7">
         <v>2339764.525936377</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>84382.2201122573</v>
-      </c>
-      <c r="F7">
-        <v>342128.9299273757</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9561,10 +9561,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6235220.903939209</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9631,10 +9631,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>8.931992821749192E-11</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9647,10 +9647,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>5.999149569488656E-12</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9660,13 +9660,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>1.726342646554193E-06</v>
+      </c>
+      <c r="E7">
         <v>7.347675199285968</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1.131761361228677E-08</v>
-      </c>
-      <c r="F7">
-        <v>1.726342646554193E-06</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9676,10 +9676,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>19.58076442739834</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9746,10 +9746,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>584.8612911954388</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9762,10 +9762,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>39.28205534091078</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9775,13 +9775,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>299973.7066607462</v>
+      </c>
+      <c r="E7">
         <v>2308343.201319368</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>74107.02451994175</v>
-      </c>
-      <c r="F7">
-        <v>299973.7066607462</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9791,10 +9791,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6151486.452070369</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9861,10 +9861,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>536.4713310894826</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9877,10 +9877,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>36.03195635258256</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9890,13 +9890,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>289750.6443151509</v>
+      </c>
+      <c r="E7">
         <v>2269683.422533625</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>67975.59470217871</v>
-      </c>
-      <c r="F7">
-        <v>289750.6443151509</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9906,10 +9906,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6048462.298077754</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9976,10 +9976,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>500.8148509579593</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9992,10 +9992,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>33.63709820950784</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10005,13 +10005,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>295366.7632924665</v>
+      </c>
+      <c r="E7">
         <v>2227992.47462933</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>63457.6078099352</v>
-      </c>
-      <c r="F7">
-        <v>295366.7632924665</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10021,10 +10021,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>5937360.404277623</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10091,10 +10091,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>482.1053548753524</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10107,10 +10107,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>32.38047980856133</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10120,13 +10120,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>316535.2654962756</v>
+      </c>
+      <c r="E7">
         <v>2187528.295295131</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>61086.95154353136</v>
-      </c>
-      <c r="F7">
-        <v>316535.2654962756</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10136,10 +10136,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>5829527.716821874</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10206,10 +10206,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>508.148719675661</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10222,10 +10222,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>34.1296755798496</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10235,13 +10235,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>365577.0513413791</v>
+      </c>
+      <c r="E7">
         <v>2152331.11847249</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>64386.87291444893</v>
-      </c>
-      <c r="F7">
-        <v>365577.0513413791</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10251,10 +10251,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>5735731.024782387</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10321,10 +10321,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>592.9925754874655</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10337,10 +10337,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>39.82819091931297</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10350,13 +10350,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>445395.7081072046</v>
+      </c>
+      <c r="E7">
         <v>2125923.525537824</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>75137.32912973424</v>
-      </c>
-      <c r="F7">
-        <v>445395.7081072046</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10366,10 +10366,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>5665357.628800134</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10436,10 +10436,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>727.350753035833</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10452,10 +10452,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>48.85232270134814</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10465,13 +10465,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>548256.8465683305</v>
+      </c>
+      <c r="E7">
         <v>2111008.588534166</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>92161.68158376653</v>
-      </c>
-      <c r="F7">
-        <v>548256.8465683305</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10481,10 +10481,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>5625610.925251435</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10551,10 +10551,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>889.6941879440062</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10567,10 +10567,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>59.75607695949307</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10580,13 +10580,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>663493.0111425923</v>
+      </c>
+      <c r="E7">
         <v>2109216.985284237</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>112732.0101257717</v>
-      </c>
-      <c r="F7">
-        <v>663493.0111425923</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10596,10 +10596,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>5620836.495212992</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10666,10 +10666,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1057.029623183907</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10682,10 +10682,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>70.99511761159984</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10695,13 +10695,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>779517.0746409703</v>
+      </c>
+      <c r="E7">
         <v>2120959.352579173</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>133934.8686309598</v>
-      </c>
-      <c r="F7">
-        <v>779517.0746409703</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10711,10 +10711,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>5652128.641583923</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10781,10 +10781,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1204.002055640314</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10797,10 +10797,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>80.86648251855104</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10810,13 +10810,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>879881.048549926</v>
+      </c>
+      <c r="E7">
         <v>2145423.283233547</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>152557.557155174</v>
-      </c>
-      <c r="F7">
-        <v>879881.048549926</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10826,10 +10826,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>5717322.386560303</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10896,10 +10896,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>2.623522149453129E-09</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10912,10 +10912,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>1.762081775873335E-10</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10925,13 +10925,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>4.156294501321229E-05</v>
+      </c>
+      <c r="E7">
         <v>19.07478405842151</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>3.32423128671658E-07</v>
-      </c>
-      <c r="F7">
-        <v>4.156294501321229E-05</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10941,10 +10941,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>50.83224870741983</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11011,10 +11011,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1301.434838083488</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11027,10 +11027,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>87.41052981586607</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11040,13 +11040,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>943684.3952699417</v>
+      </c>
+      <c r="E7">
         <v>2180720.494676669</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>164903.1401271708</v>
-      </c>
-      <c r="F7">
-        <v>943684.3952699417</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11056,10 +11056,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>5811385.660108239</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11126,10 +11126,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1340.948461046763</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11142,10 +11142,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>90.06445194634365</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11155,13 +11155,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>964374.1689040324</v>
+      </c>
+      <c r="E7">
         <v>2224153.78838883</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>169909.8606434592</v>
-      </c>
-      <c r="F7">
-        <v>964374.1689040324</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11171,10 +11171,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>5927130.718159593</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11241,10 +11241,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1339.31141405068</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11257,10 +11257,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>89.95450011389397</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11270,13 +11270,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>952823.1884010157</v>
+      </c>
+      <c r="E7">
         <v>2272549.754717044</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>169702.4325169866</v>
-      </c>
-      <c r="F7">
-        <v>952823.1884010157</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11286,10 +11286,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6056100.765175433</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11356,10 +11356,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1318.058453187615</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11372,10 +11372,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>88.527050567567</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11385,13 +11385,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>922960.2319914814</v>
+      </c>
+      <c r="E7">
         <v>2322599.579970056</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>167009.4970885173</v>
-      </c>
-      <c r="F7">
-        <v>922960.2319914814</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11401,10 +11401,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6189478.16841271</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11471,10 +11471,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1288.575266421557</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11487,10 +11487,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>86.54682005546827</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11500,13 +11500,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>881887.2148828619</v>
+      </c>
+      <c r="E7">
         <v>2371162.930108749</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>163273.7202855554</v>
-      </c>
-      <c r="F7">
-        <v>881887.2148828619</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11516,10 +11516,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6318894.275287359</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11586,10 +11586,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1245.494524259275</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11602,10 +11602,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>83.65331329887083</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11615,13 +11615,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>826364.6706409516</v>
+      </c>
+      <c r="E7">
         <v>2415508.993256242</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>157815.0146679687</v>
-      </c>
-      <c r="F7">
-        <v>826364.6706409516</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11631,10 +11631,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6437071.765748283</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11701,10 +11701,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1176.222075003452</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11717,10 +11717,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>79.00064739973823</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11730,13 +11730,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>750432.8254688632</v>
+      </c>
+      <c r="E7">
         <v>2453485.951826361</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>149037.5914176372</v>
-      </c>
-      <c r="F7">
-        <v>750432.8254688632</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11746,10 +11746,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6538276.277279066</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11816,10 +11816,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1072.971748549655</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11832,10 +11832,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>72.06586628362945</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11845,13 +11845,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>653747.1861927166</v>
+      </c>
+      <c r="E7">
         <v>2483620.36278412</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>135954.874901104</v>
-      </c>
-      <c r="F7">
-        <v>653747.1861927166</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11861,10 +11861,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6618581.242607368</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11931,10 +11931,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>946.2106452296898</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11947,10 +11947,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>63.5519900010805</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11960,13 +11960,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>549287.3213124626</v>
+      </c>
+      <c r="E7">
         <v>2505152.696336116</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>119893.137984464</v>
-      </c>
-      <c r="F7">
-        <v>549287.3213124626</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11976,10 +11976,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6675962.596493937</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -12046,10 +12046,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>824.3037531613998</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -12062,10 +12062,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>55.36414554504388</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -12075,13 +12075,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>460598.9567915921</v>
+      </c>
+      <c r="E7">
         <v>2518017.105959049</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>104446.4719532943</v>
-      </c>
-      <c r="F7">
-        <v>460598.9567915921</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -12091,10 +12091,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6710244.865033608</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
